--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_05_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="245">
   <si>
     <t>zh_CN</t>
   </si>
@@ -628,7 +628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Muelsyse"]The “Diαbolic Crisis?”
+    <t xml:space="preserve">[name="Muelsyse"]The 'Diαbolic Crisis?'
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Silence"]The “Diαbolic Crisis” precipitated Saria's departure. What happened after that, I presume you understand even better than I do, Director Muelsyse.
+    <t xml:space="preserve">[name="Silence"]The 'Diαbolic Crisis' precipitated Saria's departure. What happened after that, I presume you understand even better than I do, Director Muelsyse.
 </t>
   </si>
   <si>
@@ -956,11 +956,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="뮤엘시스"]네?
+    <t xml:space="preserve">[name="뮤엘시스"]에?
 </t>
   </si>
   <si>
     <t xml:space="preserve">[name="사일런스"]로빈은 앤소니의 무리에 끼지 않았어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="뮤엘시스"]에?!
 </t>
   </si>
   <si>
@@ -2130,7 +2134,7 @@
         <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2144,7 +2148,7 @@
         <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2158,7 +2162,7 @@
         <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2172,7 +2176,7 @@
         <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2186,7 +2190,7 @@
         <v>181</v>
       </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2200,7 +2204,7 @@
         <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2214,7 +2218,7 @@
         <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
